--- a/data/trans_dic/P20-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0532454575379682</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03661006773758881</v>
+        <v>0.03661006773758882</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0482476309819814</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01957846444988427</v>
+        <v>0.01940948869111581</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05912342928986258</v>
+        <v>0.05723542925963814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0320675846981394</v>
+        <v>0.03262971930759802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02074421559462753</v>
+        <v>0.02168313787163313</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0261260364991214</v>
+        <v>0.02676674099081468</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08984285129226775</v>
+        <v>0.08928335558806101</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08310218312563535</v>
+        <v>0.08320086253236643</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04952774361133626</v>
+        <v>0.04951775381666206</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02739592333805181</v>
+        <v>0.02601889461603861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08259186447864519</v>
+        <v>0.08008954336925211</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06242532455496528</v>
+        <v>0.06354161994092133</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04025012306277648</v>
+        <v>0.04035971169923051</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06286913425872931</v>
+        <v>0.06303210006031244</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1267037477879091</v>
+        <v>0.124822875894359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08365028363852978</v>
+        <v>0.08726538114219236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05855303115675465</v>
+        <v>0.05894770343265594</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08518355142628425</v>
+        <v>0.08527700834881485</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1741460812161802</v>
+        <v>0.1704682827580341</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1545118221820134</v>
+        <v>0.1619684503368063</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0949177363774243</v>
+        <v>0.09379496010607084</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0633982174851382</v>
+        <v>0.06229884884515453</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1356284018445501</v>
+        <v>0.1351999298917367</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1079143840195478</v>
+        <v>0.1072655597158509</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06989335347910443</v>
+        <v>0.0690680333520423</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03301622141549232</v>
+        <v>0.03383941321508593</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05971617985806486</v>
+        <v>0.05786068632575991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02699470596096802</v>
+        <v>0.02675914163714757</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05462855280202886</v>
+        <v>0.05245326149699812</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06898503097872019</v>
+        <v>0.07212329434037085</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08915957010087157</v>
+        <v>0.08560055617668944</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0482370402519319</v>
+        <v>0.04773555473851587</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03115635879051983</v>
+        <v>0.03094327890950323</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.058797745949008</v>
+        <v>0.05811683114413799</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08002243279569574</v>
+        <v>0.08090031560111721</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0412125306555178</v>
+        <v>0.04204418185803351</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04773068868848156</v>
+        <v>0.04588134690331874</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0776929055288916</v>
+        <v>0.07513190851936517</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.112885834787519</v>
+        <v>0.1147459505766101</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06464723151716822</v>
+        <v>0.06515882240532458</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1046481803335965</v>
+        <v>0.1052198825315644</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1194021056949663</v>
+        <v>0.1229084446623468</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.147286518928784</v>
+        <v>0.1429019464278927</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09456170863523826</v>
+        <v>0.09548484908529838</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06626771974004746</v>
+        <v>0.06602164742275188</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09177032692739885</v>
+        <v>0.09070971495438956</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1200569933182394</v>
+        <v>0.1208622361777428</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07081373653558314</v>
+        <v>0.07291857805871083</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0778896599007655</v>
+        <v>0.0789874674688778</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.06481274527571969</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08902298494275876</v>
+        <v>0.08902298494275875</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008878454914455599</v>
+        <v>0.008735441015566019</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04761522575970894</v>
+        <v>0.05035680245465069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01425891837204791</v>
+        <v>0.01394729236328512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05940496302137929</v>
+        <v>0.06179136975307124</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02988314750470262</v>
+        <v>0.02675453951534053</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07511749320791936</v>
+        <v>0.07172657902733402</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07068055034825195</v>
+        <v>0.0712264551539398</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07046516208755892</v>
+        <v>0.07245477678701119</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0241443649868358</v>
+        <v>0.02255345505365735</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07078242055161582</v>
+        <v>0.07042266349960126</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04923701895520997</v>
+        <v>0.04803118286912112</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07149935222073545</v>
+        <v>0.07098282757779996</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05000929947585419</v>
+        <v>0.05218825721260097</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1102689272553782</v>
+        <v>0.1101641476021675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04808401112213173</v>
+        <v>0.04951916616683432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1194132596468841</v>
+        <v>0.1160488121317608</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07667875118471675</v>
+        <v>0.07544041594211107</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1453223530424236</v>
+        <v>0.1390325971886501</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1356368197903605</v>
+        <v>0.1331577307059669</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1230316748267116</v>
+        <v>0.1261689865489122</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05535746141001758</v>
+        <v>0.05349349082336251</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1144108178391714</v>
+        <v>0.1164725968779225</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08553385160918191</v>
+        <v>0.0847591384512464</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1119793282635922</v>
+        <v>0.1091265341540658</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.0823429469575627</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.09055586004486538</v>
+        <v>0.0905558600448654</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03699459308479774</v>
@@ -1105,7 +1105,7 @@
         <v>0.07916430678879158</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08283796402701069</v>
+        <v>0.08283796402701064</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01014377426610326</v>
+        <v>0.01000108067046678</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03338064323574778</v>
+        <v>0.03297185994809695</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04930387910068106</v>
+        <v>0.05022931761236982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04859040669074392</v>
+        <v>0.04594630912574139</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03258744350969373</v>
+        <v>0.03416732192843547</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07235551332837836</v>
+        <v>0.06916846748566256</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05580086100285881</v>
+        <v>0.05641207497969129</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06204600834103293</v>
+        <v>0.06212927402696041</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02544446605717671</v>
+        <v>0.02478270456858172</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05779832696840718</v>
+        <v>0.05785149190770144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06095918780870887</v>
+        <v>0.0601780582828554</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0618089562459196</v>
+        <v>0.06283647461332459</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03896120696961237</v>
+        <v>0.03912948876592775</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07958319441869324</v>
+        <v>0.08150206320274121</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1105903184016693</v>
+        <v>0.1055989067911646</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1184948640801115</v>
+        <v>0.1153812993035305</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07661256031526231</v>
+        <v>0.0802078198305798</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1389926252644795</v>
+        <v>0.1336696342537143</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1161290372398236</v>
+        <v>0.1153671342344841</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1309974981646189</v>
+        <v>0.1343982223349052</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0530225778332134</v>
+        <v>0.0540702182997839</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09755768368758119</v>
+        <v>0.09716421942948145</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1041387084933157</v>
+        <v>0.1008026368638586</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1122158385865248</v>
+        <v>0.1102901629893711</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.05142755504941651</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03952094492369304</v>
+        <v>0.03952094492369303</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.07760732275517783</v>
@@ -1241,7 +1241,7 @@
         <v>0.04631849243517351</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03121651935784944</v>
+        <v>0.03121651935784945</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03605576320372416</v>
+        <v>0.03435759929272787</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03416100894723369</v>
+        <v>0.03377255481264201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01835949866229208</v>
+        <v>0.01823021375283109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01056683485883605</v>
+        <v>0.009319465779768827</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05665847663073015</v>
+        <v>0.05778089315623861</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06149270772761487</v>
+        <v>0.06272564909291066</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02412821548081994</v>
+        <v>0.02617729394602085</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02461120559327982</v>
+        <v>0.0256581280256217</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05462597618137851</v>
+        <v>0.05323419855098643</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05821761087904535</v>
+        <v>0.05716523461680521</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02835625884266722</v>
+        <v>0.03055434791506719</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02136171233598884</v>
+        <v>0.02157447591035631</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1035926028616913</v>
+        <v>0.1029760053580778</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1009752894533362</v>
+        <v>0.1074805077865229</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07639785122860397</v>
+        <v>0.07296829863574791</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04202750181900403</v>
+        <v>0.04368935972469778</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.139644105025222</v>
+        <v>0.1360395757147712</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1417551872793381</v>
+        <v>0.1455371384575318</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09263824197555641</v>
+        <v>0.09230896016121111</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06136482343488142</v>
+        <v>0.05773542290984003</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1063588281801391</v>
+        <v>0.1047589989132611</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1121334523609189</v>
+        <v>0.1083837292101932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0700935757208534</v>
+        <v>0.07218833291521674</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04401570107155681</v>
+        <v>0.04554577500532216</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1040642289213968</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08455803708216023</v>
+        <v>0.08455803708216021</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07475698457310724</v>
@@ -1377,7 +1377,7 @@
         <v>0.08878015359626809</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.08712291195095688</v>
+        <v>0.08712291195095687</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02091995530381579</v>
+        <v>0.0204153914251854</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03062789810981061</v>
+        <v>0.03343555896887104</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0463998336892389</v>
+        <v>0.04403641710719337</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0641661847101286</v>
+        <v>0.06672233766068993</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07705925095304471</v>
+        <v>0.07582079172841127</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06437071223094701</v>
+        <v>0.06506234100575974</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07158730596931301</v>
+        <v>0.06964444878908595</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0596347140766121</v>
+        <v>0.05879350212129307</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05334390306592737</v>
+        <v>0.05470863961030375</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.05547676433723301</v>
+        <v>0.05414803305640097</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06645655048110333</v>
+        <v>0.06783844879527999</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06967598900103136</v>
+        <v>0.0693514154554609</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06879580098446549</v>
+        <v>0.0642104668536506</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09264795828085345</v>
+        <v>0.09269479776690427</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1124625055573307</v>
+        <v>0.1108485890030534</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1216140960493349</v>
+        <v>0.1236319218736811</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1502653844305749</v>
+        <v>0.1526686538860986</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1354187956718526</v>
+        <v>0.1365005919660776</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1486483972180873</v>
+        <v>0.1444634962611758</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1147563666241306</v>
+        <v>0.113145646583031</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09933314995411181</v>
+        <v>0.09951007217374612</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1027049516764335</v>
+        <v>0.09981420050703452</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1185091166858858</v>
+        <v>0.1173978241190037</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1064015383305592</v>
+        <v>0.1084661125497589</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.05590824503763632</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07188589870623208</v>
+        <v>0.07188589870623209</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04178452164273743</v>
+        <v>0.03913442294292847</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03104133145777617</v>
+        <v>0.03132183222185352</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02508624181474083</v>
+        <v>0.02615437596582773</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04535071045489379</v>
+        <v>0.04496723985205574</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06467676775179869</v>
+        <v>0.06482162780415245</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06453890168601634</v>
+        <v>0.06267707273855015</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05394834703862426</v>
+        <v>0.05239833232553284</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06700801390058289</v>
+        <v>0.06653633405343949</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05772322718867652</v>
+        <v>0.05855444054724434</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05267342743525891</v>
+        <v>0.05299943998875861</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04311927737039152</v>
+        <v>0.04391714330715422</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05978901715098563</v>
+        <v>0.06044484811618726</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07999586556079463</v>
+        <v>0.07719505893933636</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07005806640840107</v>
+        <v>0.06920789778465787</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05918334107840632</v>
+        <v>0.06029512881536363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08250157613112463</v>
+        <v>0.08189731266778577</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1089301792184305</v>
+        <v>0.1084597784202828</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1087676506913252</v>
+        <v>0.1069267084929793</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09662017085290737</v>
+        <v>0.09449497486456937</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1040242119799101</v>
+        <v>0.1019422175062287</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0878784927747225</v>
+        <v>0.08851310947515732</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08045008447289338</v>
+        <v>0.08129058016486911</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07027365538945177</v>
+        <v>0.07098803680482213</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08526276853404463</v>
+        <v>0.08673684154082444</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.05995568232440122</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.03887947299365453</v>
+        <v>0.03887947299365454</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.04989514891367407</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02309532123347657</v>
+        <v>0.02308482021096676</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03325776766528109</v>
+        <v>0.03480583914862332</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0319003164357868</v>
+        <v>0.03287571410358345</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0221249194141227</v>
+        <v>0.02247847956827158</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0480999153190359</v>
+        <v>0.04686156633517746</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0547192291308771</v>
+        <v>0.05634039827263035</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04354914709356184</v>
+        <v>0.04442106694471362</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02734889973633159</v>
+        <v>0.02706248070341531</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04006751512505795</v>
+        <v>0.03918704459980005</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04888903506491991</v>
+        <v>0.04980076855532473</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04270094915877616</v>
+        <v>0.04182615936092393</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02775971197888214</v>
+        <v>0.02713914985282877</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0496880662556057</v>
+        <v>0.04902545346856634</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06450668419634524</v>
+        <v>0.06569773841788344</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0626719739510318</v>
+        <v>0.06330573711563635</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04665587838281361</v>
+        <v>0.04608623585494245</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08356781066052764</v>
+        <v>0.08498755526443398</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0931378498256822</v>
+        <v>0.09597402382931244</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.07896841587778783</v>
+        <v>0.07869470440757688</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05327418931357503</v>
+        <v>0.05346917518064223</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06288263477367256</v>
+        <v>0.06214724195831858</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.07288857903147107</v>
+        <v>0.07473907964642261</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06620313810924452</v>
+        <v>0.06679720001859893</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04455619051661893</v>
+        <v>0.04555076698526667</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03481822323734288</v>
+        <v>0.03517505133738276</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05357530969927975</v>
+        <v>0.0529560943412473</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04057136070786677</v>
+        <v>0.0413306795886315</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05007353394387337</v>
+        <v>0.05022066642849589</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06540273755975194</v>
+        <v>0.06534352694564585</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08632097760346072</v>
+        <v>0.08482629104669537</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06813196674766327</v>
+        <v>0.0683766491139508</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.05878792459887847</v>
+        <v>0.05847830381162596</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05263701843802458</v>
+        <v>0.05262628201072669</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.0723242506507467</v>
+        <v>0.07207535037721033</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.05700147599301867</v>
+        <v>0.0569885590382995</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.05634193505176748</v>
+        <v>0.05696182072329446</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04899940523340228</v>
+        <v>0.0488679303111352</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0701497590130598</v>
+        <v>0.069713731599287</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0555857968233314</v>
+        <v>0.05638573633172054</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06575732561375243</v>
+        <v>0.06687726761559298</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.08350308527758768</v>
+        <v>0.08315847145516574</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1067100339602286</v>
+        <v>0.1046664699082766</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.08681047390311687</v>
+        <v>0.08702733628467199</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.07427086192791184</v>
+        <v>0.07356900661473674</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06408227228174285</v>
+        <v>0.06450618366786663</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.08504521843741056</v>
+        <v>0.08514976010835695</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.06905282531260525</v>
+        <v>0.0694520166173045</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06753522921335316</v>
+        <v>0.06789716671545261</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5345</v>
+        <v>5299</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17426</v>
+        <v>16869</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9420</v>
+        <v>9585</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6614</v>
+        <v>6914</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6815</v>
+        <v>6982</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25807</v>
+        <v>25646</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23992</v>
+        <v>24020</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15654</v>
+        <v>15651</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14625</v>
+        <v>13890</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>48067</v>
+        <v>46611</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>36361</v>
+        <v>37011</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>25555</v>
+        <v>25625</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17164</v>
+        <v>17208</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37344</v>
+        <v>36790</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24573</v>
+        <v>25635</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18669</v>
+        <v>18795</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22219</v>
+        <v>22243</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50023</v>
+        <v>48966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>44608</v>
+        <v>46761</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30000</v>
+        <v>29645</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33845</v>
+        <v>33258</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>78933</v>
+        <v>78684</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>62856</v>
+        <v>62478</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>44376</v>
+        <v>43852</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16279</v>
+        <v>16685</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30066</v>
+        <v>29132</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13567</v>
+        <v>13448</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>28988</v>
+        <v>27834</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>34765</v>
+        <v>36346</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>46699</v>
+        <v>44835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25232</v>
+        <v>24970</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17027</v>
+        <v>16910</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>58623</v>
+        <v>57944</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>82203</v>
+        <v>83104</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>42270</v>
+        <v>43123</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>51413</v>
+        <v>49421</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38308</v>
+        <v>37046</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>56836</v>
+        <v>57772</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32490</v>
+        <v>32747</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>55531</v>
+        <v>55835</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>60173</v>
+        <v>61940</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>77144</v>
+        <v>74847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>49464</v>
+        <v>49947</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36215</v>
+        <v>36080</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>91497</v>
+        <v>90440</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>123328</v>
+        <v>124155</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>72631</v>
+        <v>74790</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>83898</v>
+        <v>85081</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2831</v>
+        <v>2785</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15430</v>
+        <v>16318</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4542</v>
+        <v>4443</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18772</v>
+        <v>19526</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10023</v>
+        <v>8974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25617</v>
+        <v>24460</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23771</v>
+        <v>23954</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25112</v>
+        <v>25822</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>15797</v>
+        <v>14756</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>47075</v>
+        <v>46836</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>32244</v>
+        <v>31454</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>48074</v>
+        <v>47727</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15945</v>
+        <v>16640</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35732</v>
+        <v>35698</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15318</v>
+        <v>15775</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>37734</v>
+        <v>36671</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25719</v>
+        <v>25304</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49558</v>
+        <v>47413</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>45616</v>
+        <v>44782</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>43846</v>
+        <v>44964</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>36218</v>
+        <v>34999</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>76091</v>
+        <v>77462</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>56014</v>
+        <v>55507</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>75292</v>
+        <v>73374</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3629</v>
+        <v>3578</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12484</v>
+        <v>12331</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18241</v>
+        <v>18583</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18131</v>
+        <v>17145</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12105</v>
+        <v>12692</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>28143</v>
+        <v>26903</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>21611</v>
+        <v>21847</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>26181</v>
+        <v>26216</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18554</v>
+        <v>18071</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>44096</v>
+        <v>44137</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>46161</v>
+        <v>45570</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>49145</v>
+        <v>49962</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13937</v>
+        <v>13998</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29763</v>
+        <v>30480</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40914</v>
+        <v>39068</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44216</v>
+        <v>43054</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28458</v>
+        <v>29794</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>54061</v>
+        <v>51991</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>44975</v>
+        <v>44680</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>55276</v>
+        <v>56711</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>38663</v>
+        <v>39427</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>74430</v>
+        <v>74130</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>78859</v>
+        <v>76332</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>89224</v>
+        <v>87692</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7330</v>
+        <v>6985</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7263</v>
+        <v>7181</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3878</v>
+        <v>3851</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2173</v>
+        <v>1917</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11766</v>
+        <v>11999</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13503</v>
+        <v>13774</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5274</v>
+        <v>5722</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5592</v>
+        <v>5830</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22450</v>
+        <v>21878</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>25162</v>
+        <v>24707</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>12188</v>
+        <v>13133</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9247</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21061</v>
+        <v>20936</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21469</v>
+        <v>22852</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16137</v>
+        <v>15412</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8644</v>
+        <v>8985</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29000</v>
+        <v>28251</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>31128</v>
+        <v>31959</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20250</v>
+        <v>20178</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>13943</v>
+        <v>13118</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>43711</v>
+        <v>43053</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>48465</v>
+        <v>46844</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>30127</v>
+        <v>31027</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>19053</v>
+        <v>19716</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5665</v>
+        <v>5529</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8391</v>
+        <v>9161</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12209</v>
+        <v>11587</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17370</v>
+        <v>18062</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>21434</v>
+        <v>21089</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>18026</v>
+        <v>18219</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>19552</v>
+        <v>19021</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>15729</v>
+        <v>15507</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>29283</v>
+        <v>30033</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>30735</v>
+        <v>29999</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>35637</v>
+        <v>36378</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>37239</v>
+        <v>37065</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18631</v>
+        <v>17389</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>25384</v>
+        <v>25397</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29591</v>
+        <v>29167</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>32922</v>
+        <v>33468</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>41795</v>
+        <v>42464</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>37921</v>
+        <v>38224</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>40598</v>
+        <v>39455</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>30267</v>
+        <v>29842</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>54529</v>
+        <v>54627</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>56900</v>
+        <v>55298</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>63549</v>
+        <v>62953</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>56867</v>
+        <v>57970</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>25699</v>
+        <v>24069</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>20574</v>
+        <v>20760</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>16471</v>
+        <v>17172</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>32638</v>
+        <v>32362</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>41278</v>
+        <v>41370</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>44781</v>
+        <v>43489</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>37294</v>
+        <v>36223</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>51734</v>
+        <v>51370</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>72341</v>
+        <v>73383</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>71459</v>
+        <v>71901</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>58118</v>
+        <v>59194</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>89190</v>
+        <v>90168</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>49200</v>
+        <v>47477</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>46434</v>
+        <v>45870</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>38857</v>
+        <v>39587</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>59375</v>
+        <v>58940</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>69521</v>
+        <v>69221</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>75469</v>
+        <v>74191</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>66793</v>
+        <v>65324</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>80313</v>
+        <v>78705</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>110133</v>
+        <v>110929</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>109142</v>
+        <v>110282</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>94718</v>
+        <v>95681</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>127190</v>
+        <v>129389</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>17178</v>
+        <v>17170</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>25911</v>
+        <v>27117</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>24837</v>
+        <v>25596</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>17657</v>
+        <v>17939</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>37687</v>
+        <v>36717</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>45081</v>
+        <v>46416</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>35979</v>
+        <v>36699</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>22716</v>
+        <v>22478</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>61195</v>
+        <v>59851</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>78367</v>
+        <v>79828</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>68524</v>
+        <v>67121</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>45212</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>36958</v>
+        <v>36465</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>50257</v>
+        <v>51185</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>48795</v>
+        <v>49289</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>37235</v>
+        <v>36780</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>65476</v>
+        <v>66589</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>76732</v>
+        <v>79068</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>65241</v>
+        <v>65015</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>44250</v>
+        <v>44412</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>96041</v>
+        <v>94918</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>116837</v>
+        <v>119803</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>106239</v>
+        <v>107193</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>72568</v>
+        <v>74188</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>114051</v>
+        <v>115219</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>183481</v>
+        <v>181360</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>137713</v>
+        <v>140291</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>176898</v>
+        <v>177418</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>221009</v>
+        <v>220809</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>307157</v>
+        <v>301838</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>241497</v>
+        <v>242364</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>219545</v>
+        <v>218389</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>350289</v>
+        <v>350217</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>505043</v>
+        <v>503305</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>395527</v>
+        <v>395437</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>409453</v>
+        <v>413958</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>160502</v>
+        <v>160072</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>240244</v>
+        <v>238751</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>188678</v>
+        <v>191393</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>232305</v>
+        <v>236261</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>282173</v>
+        <v>281009</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>379707</v>
+        <v>372436</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>307703</v>
+        <v>308472</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>277367</v>
+        <v>274746</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>426454</v>
+        <v>429275</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>593874</v>
+        <v>594604</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>479150</v>
+        <v>481920</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>490798</v>
+        <v>493428</v>
       </c>
     </row>
     <row r="40">
